--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1000FA-E75C-49FE-A21F-0527440516CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B17F99-873D-478C-9012-5FFE6BA3676A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t xml:space="preserve">№ 1 </t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Оценка: 1</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,6 +483,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -520,6 +526,9 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B17F99-873D-478C-9012-5FFE6BA3676A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1000FA-E75C-49FE-A21F-0527440516CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">№ 1 </t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Оценка: 1</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -460,7 +457,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,9 +480,6 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -526,9 +520,6 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
